--- a/skincare_요구사항정의서.xlsx
+++ b/skincare_요구사항정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joohy\Desktop\3-1학기 자료\앱프로그래밍응용\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54CB875-33AC-490B-8F1C-123B020A2A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A8EE70-5D32-4D24-AC3E-F1587E38DB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="앱 요구사항정의서_1.0(원본)" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Database">#REF!</definedName>
@@ -44,7 +43,7 @@
     <definedName name="HTML_PathFile" hidden="1">"C:\My Documents\98월별동향조사\작업장\MyHTML.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"juyo9803"</definedName>
     <definedName name="Print_Title">#REF!</definedName>
-    <definedName name="Sw_pop">[2]Sw_pop!#REF!</definedName>
+    <definedName name="Sw_pop">[1]Sw_pop!#REF!</definedName>
     <definedName name="개인별분배">BlankMacro1</definedName>
     <definedName name="개인별분배_1">BlankMacro1</definedName>
     <definedName name="개인별분배_4">BlankMacro1</definedName>
@@ -52,15 +51,15 @@
     <definedName name="개인별분배_6">BlankMacro1</definedName>
     <definedName name="과장">BlankMacro1</definedName>
     <definedName name="과장_6">BlankMacro1</definedName>
-    <definedName name="금호기타불량">'[3]금호 산업'!$AT$13</definedName>
-    <definedName name="금호기획">'[3]금호 산업'!$K$13</definedName>
-    <definedName name="금호기획량">'[3]금호 산업'!$B$13</definedName>
-    <definedName name="금호요척량">'[3]금호 산업'!$AA$13</definedName>
-    <definedName name="금호원불">'[3]금호 산업'!$AR$13</definedName>
-    <definedName name="금호정품입고">'[3]금호 산업'!$AP$13</definedName>
-    <definedName name="금호취불">'[3]금호 산업'!$AS$13</definedName>
-    <definedName name="기획">'[4]96 FW 기획_ 진행 현황'!$A$155,'[4]96 FW 기획_ 진행 현황'!$A$156,'[4]96 FW 기획_ 진행 현황'!$A$157,'[4]96 FW 기획_ 진행 현황'!$A$158,'[4]96 FW 기획_ 진행 현황'!$A$159,'[4]96 FW 기획_ 진행 현황'!$A$226,'[4]96 FW 기획_ 진행 현황'!$A$227,'[4]96 FW 기획_ 진행 현황'!$A$228,'[4]96 FW 기획_ 진행 현황'!$A$229,'[4]96 FW 기획_ 진행 현황'!$A$230,'[4]96 FW 기획_ 진행 현황'!$A$231,'[4]96 FW 기획_ 진행 현황'!$A$232,'[4]96 FW 기획_ 진행 현황'!$A$233,'[4]96 FW 기획_ 진행 현황'!$A$234,'[4]96 FW 기획_ 진행 현황'!$A$235</definedName>
-    <definedName name="기획량">'[4]96 FW 기획_ 진행 현황'!$E$155,'[4]96 FW 기획_ 진행 현황'!$E$156,'[4]96 FW 기획_ 진행 현황'!$E$157,'[4]96 FW 기획_ 진행 현황'!$E$158,'[4]96 FW 기획_ 진행 현황'!$E$159,'[4]96 FW 기획_ 진행 현황'!$E$226,'[4]96 FW 기획_ 진행 현황'!$E$227,'[4]96 FW 기획_ 진행 현황'!$E$228,'[4]96 FW 기획_ 진행 현황'!$E$229,'[4]96 FW 기획_ 진행 현황'!$E$230,'[4]96 FW 기획_ 진행 현황'!$E$231,'[4]96 FW 기획_ 진행 현황'!$E$232,'[4]96 FW 기획_ 진행 현황'!$E$233,'[4]96 FW 기획_ 진행 현황'!$E$234,'[4]96 FW 기획_ 진행 현황'!$E$235</definedName>
+    <definedName name="금호기타불량">'[2]금호 산업'!$AT$13</definedName>
+    <definedName name="금호기획">'[2]금호 산업'!$K$13</definedName>
+    <definedName name="금호기획량">'[2]금호 산업'!$B$13</definedName>
+    <definedName name="금호요척량">'[2]금호 산업'!$AA$13</definedName>
+    <definedName name="금호원불">'[2]금호 산업'!$AR$13</definedName>
+    <definedName name="금호정품입고">'[2]금호 산업'!$AP$13</definedName>
+    <definedName name="금호취불">'[2]금호 산업'!$AS$13</definedName>
+    <definedName name="기획">'[3]96 FW 기획_ 진행 현황'!$A$155,'[3]96 FW 기획_ 진행 현황'!$A$156,'[3]96 FW 기획_ 진행 현황'!$A$157,'[3]96 FW 기획_ 진행 현황'!$A$158,'[3]96 FW 기획_ 진행 현황'!$A$159,'[3]96 FW 기획_ 진행 현황'!$A$226,'[3]96 FW 기획_ 진행 현황'!$A$227,'[3]96 FW 기획_ 진행 현황'!$A$228,'[3]96 FW 기획_ 진행 현황'!$A$229,'[3]96 FW 기획_ 진행 현황'!$A$230,'[3]96 FW 기획_ 진행 현황'!$A$231,'[3]96 FW 기획_ 진행 현황'!$A$232,'[3]96 FW 기획_ 진행 현황'!$A$233,'[3]96 FW 기획_ 진행 현황'!$A$234,'[3]96 FW 기획_ 진행 현황'!$A$235</definedName>
+    <definedName name="기획량">'[3]96 FW 기획_ 진행 현황'!$E$155,'[3]96 FW 기획_ 진행 현황'!$E$156,'[3]96 FW 기획_ 진행 현황'!$E$157,'[3]96 FW 기획_ 진행 현황'!$E$158,'[3]96 FW 기획_ 진행 현황'!$E$159,'[3]96 FW 기획_ 진행 현황'!$E$226,'[3]96 FW 기획_ 진행 현황'!$E$227,'[3]96 FW 기획_ 진행 현황'!$E$228,'[3]96 FW 기획_ 진행 현황'!$E$229,'[3]96 FW 기획_ 진행 현황'!$E$230,'[3]96 FW 기획_ 진행 현황'!$E$231,'[3]96 FW 기획_ 진행 현황'!$E$232,'[3]96 FW 기획_ 진행 현황'!$E$233,'[3]96 FW 기획_ 진행 현황'!$E$234,'[3]96 FW 기획_ 진행 현황'!$E$235</definedName>
     <definedName name="ㄴㅌ">BlankMacro1</definedName>
     <definedName name="ㄴㅌ_1">BlankMacro1</definedName>
     <definedName name="ㄴㅌ_4">BlankMacro1</definedName>
@@ -101,14 +100,14 @@
     <definedName name="ㅇㄴ_4">BlankMacro1</definedName>
     <definedName name="ㅇㄴ_5">BlankMacro1</definedName>
     <definedName name="ㅇㄴ_6">BlankMacro1</definedName>
-    <definedName name="요척량">'[4]96 FW 기획_ 진행 현황'!$V$155,'[4]96 FW 기획_ 진행 현황'!$V$156,'[4]96 FW 기획_ 진행 현황'!$V$157,'[4]96 FW 기획_ 진행 현황'!$V$158,'[4]96 FW 기획_ 진행 현황'!$V$159,'[4]96 FW 기획_ 진행 현황'!$V$226,'[4]96 FW 기획_ 진행 현황'!$V$227,'[4]96 FW 기획_ 진행 현황'!$V$228,'[4]96 FW 기획_ 진행 현황'!$V$229,'[4]96 FW 기획_ 진행 현황'!$V$230,'[4]96 FW 기획_ 진행 현황'!$V$231,'[4]96 FW 기획_ 진행 현황'!$V$232,'[4]96 FW 기획_ 진행 현황'!$V$233,'[4]96 FW 기획_ 진행 현황'!$V$234,'[4]96 FW 기획_ 진행 현황'!$V$235</definedName>
-    <definedName name="우진기타불량">'[3]우진 I_S'!$AT$24</definedName>
-    <definedName name="우진기획">'[3]우진 I_S'!$K$24</definedName>
-    <definedName name="우진기획량">'[3]우진 I_S'!$B$24</definedName>
-    <definedName name="우진요척량">'[3]우진 I_S'!$AA$24</definedName>
-    <definedName name="우진원불">'[3]우진 I_S'!$AR$24</definedName>
-    <definedName name="우진정품입고">'[3]우진 I_S'!$AP$24</definedName>
-    <definedName name="우진취불">'[3]우진 I_S'!$AS$24</definedName>
+    <definedName name="요척량">'[3]96 FW 기획_ 진행 현황'!$V$155,'[3]96 FW 기획_ 진행 현황'!$V$156,'[3]96 FW 기획_ 진행 현황'!$V$157,'[3]96 FW 기획_ 진행 현황'!$V$158,'[3]96 FW 기획_ 진행 현황'!$V$159,'[3]96 FW 기획_ 진행 현황'!$V$226,'[3]96 FW 기획_ 진행 현황'!$V$227,'[3]96 FW 기획_ 진행 현황'!$V$228,'[3]96 FW 기획_ 진행 현황'!$V$229,'[3]96 FW 기획_ 진행 현황'!$V$230,'[3]96 FW 기획_ 진행 현황'!$V$231,'[3]96 FW 기획_ 진행 현황'!$V$232,'[3]96 FW 기획_ 진행 현황'!$V$233,'[3]96 FW 기획_ 진행 현황'!$V$234,'[3]96 FW 기획_ 진행 현황'!$V$235</definedName>
+    <definedName name="우진기타불량">'[2]우진 I_S'!$AT$24</definedName>
+    <definedName name="우진기획">'[2]우진 I_S'!$K$24</definedName>
+    <definedName name="우진기획량">'[2]우진 I_S'!$B$24</definedName>
+    <definedName name="우진요척량">'[2]우진 I_S'!$AA$24</definedName>
+    <definedName name="우진원불">'[2]우진 I_S'!$AR$24</definedName>
+    <definedName name="우진정품입고">'[2]우진 I_S'!$AP$24</definedName>
+    <definedName name="우진취불">'[2]우진 I_S'!$AS$24</definedName>
     <definedName name="월1">#REF!</definedName>
     <definedName name="월10">#REF!</definedName>
     <definedName name="월11">#REF!</definedName>
@@ -146,24 +145,24 @@
     <definedName name="전사성과급규모_4">BlankMacro1</definedName>
     <definedName name="전사성과급규모_5">BlankMacro1</definedName>
     <definedName name="전사성과급규모_6">BlankMacro1</definedName>
-    <definedName name="정품">'[4]96 FW 기획_ 진행 현황'!$W$235,'[4]96 FW 기획_ 진행 현황'!$W$234,'[4]96 FW 기획_ 진행 현황'!$W$233,'[4]96 FW 기획_ 진행 현황'!$W$232,'[4]96 FW 기획_ 진행 현황'!$W$231,'[4]96 FW 기획_ 진행 현황'!$W$230,'[4]96 FW 기획_ 진행 현황'!$W$229,'[4]96 FW 기획_ 진행 현황'!$W$228,'[4]96 FW 기획_ 진행 현황'!$W$227,'[4]96 FW 기획_ 진행 현황'!$W$226,'[4]96 FW 기획_ 진행 현황'!$W$159,'[4]96 FW 기획_ 진행 현황'!$W$158,'[4]96 FW 기획_ 진행 현황'!$W$157,'[4]96 FW 기획_ 진행 현황'!$W$156,'[4]96 FW 기획_ 진행 현황'!$W$155</definedName>
-    <definedName name="제일기타불량">'[3]제일 합섬'!$AT$7</definedName>
-    <definedName name="제일기획">'[3]제일 합섬'!$K$7</definedName>
-    <definedName name="제일기획량">'[3]제일 합섬'!$B$7</definedName>
-    <definedName name="제일요척량">'[3]제일 합섬'!$AA$7</definedName>
-    <definedName name="제일원불">'[3]제일 합섬'!$AR$7</definedName>
-    <definedName name="제일정품입고">'[3]제일 합섬'!$AP$7</definedName>
-    <definedName name="제일취불">'[3]제일 합섬'!$AS$7</definedName>
+    <definedName name="정품">'[3]96 FW 기획_ 진행 현황'!$W$235,'[3]96 FW 기획_ 진행 현황'!$W$234,'[3]96 FW 기획_ 진행 현황'!$W$233,'[3]96 FW 기획_ 진행 현황'!$W$232,'[3]96 FW 기획_ 진행 현황'!$W$231,'[3]96 FW 기획_ 진행 현황'!$W$230,'[3]96 FW 기획_ 진행 현황'!$W$229,'[3]96 FW 기획_ 진행 현황'!$W$228,'[3]96 FW 기획_ 진행 현황'!$W$227,'[3]96 FW 기획_ 진행 현황'!$W$226,'[3]96 FW 기획_ 진행 현황'!$W$159,'[3]96 FW 기획_ 진행 현황'!$W$158,'[3]96 FW 기획_ 진행 현황'!$W$157,'[3]96 FW 기획_ 진행 현황'!$W$156,'[3]96 FW 기획_ 진행 현황'!$W$155</definedName>
+    <definedName name="제일기타불량">'[2]제일 합섬'!$AT$7</definedName>
+    <definedName name="제일기획">'[2]제일 합섬'!$K$7</definedName>
+    <definedName name="제일기획량">'[2]제일 합섬'!$B$7</definedName>
+    <definedName name="제일요척량">'[2]제일 합섬'!$AA$7</definedName>
+    <definedName name="제일원불">'[2]제일 합섬'!$AR$7</definedName>
+    <definedName name="제일정품입고">'[2]제일 합섬'!$AP$7</definedName>
+    <definedName name="제일취불">'[2]제일 합섬'!$AS$7</definedName>
     <definedName name="조사값2" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
-    <definedName name="지부월전체">[5]지부전체!$L$1:$L$65536,[5]지부전체!$N$1:$N$65536,[5]지부전체!$P$1:$P$65536,[5]지부전체!$R$1:$R$65536,[5]지부전체!$T$1:$T$65536,[5]지부전체!$V$1:$V$65536,[5]지부전체!$X$1:$X$65536,[5]지부전체!$Z$1:$Z$65536,[5]지부전체!$AB$1:$AB$65536,[5]지부전체!$AD$1:$AD$65536,[5]지부전체!$AF$1:$AF$65536,[5]지부전체!$AH$1:$AH$65536</definedName>
-    <definedName name="지부장소전체">[5]지부전체!$M$1:$M$65536,[5]지부전체!$O$1:$O$65536,[5]지부전체!$Q$1:$Q$65536,[5]지부전체!$S$1:$S$65536,[5]지부전체!$U$1:$U$65536,[5]지부전체!$W$1:$W$65536,[5]지부전체!$Y$1:$Y$65536,[5]지부전체!$AA$1:$AA$65536,[5]지부전체!$AC$1:$AC$65536,[5]지부전체!$AE$1:$AE$65536,[5]지부전체!$AG$1:$AG$65536,[5]지부전체!$AI$1:$AI$65536</definedName>
-    <definedName name="진성기타불량">'[3]진성 실업'!$AT$11</definedName>
-    <definedName name="진성기획">'[3]진성 실업'!$K$11</definedName>
-    <definedName name="진성기획량">'[3]진성 실업'!$B$11</definedName>
-    <definedName name="진성요척량">'[3]진성 실업'!$AA$11</definedName>
-    <definedName name="진성원불">'[3]진성 실업'!$AR$11</definedName>
-    <definedName name="진성정품입고">'[3]진성 실업'!$AP$11</definedName>
-    <definedName name="진성취불">'[3]진성 실업'!$AS$11</definedName>
+    <definedName name="지부월전체">[4]지부전체!$L$1:$L$65536,[4]지부전체!$N$1:$N$65536,[4]지부전체!$P$1:$P$65536,[4]지부전체!$R$1:$R$65536,[4]지부전체!$T$1:$T$65536,[4]지부전체!$V$1:$V$65536,[4]지부전체!$X$1:$X$65536,[4]지부전체!$Z$1:$Z$65536,[4]지부전체!$AB$1:$AB$65536,[4]지부전체!$AD$1:$AD$65536,[4]지부전체!$AF$1:$AF$65536,[4]지부전체!$AH$1:$AH$65536</definedName>
+    <definedName name="지부장소전체">[4]지부전체!$M$1:$M$65536,[4]지부전체!$O$1:$O$65536,[4]지부전체!$Q$1:$Q$65536,[4]지부전체!$S$1:$S$65536,[4]지부전체!$U$1:$U$65536,[4]지부전체!$W$1:$W$65536,[4]지부전체!$Y$1:$Y$65536,[4]지부전체!$AA$1:$AA$65536,[4]지부전체!$AC$1:$AC$65536,[4]지부전체!$AE$1:$AE$65536,[4]지부전체!$AG$1:$AG$65536,[4]지부전체!$AI$1:$AI$65536</definedName>
+    <definedName name="진성기타불량">'[2]진성 실업'!$AT$11</definedName>
+    <definedName name="진성기획">'[2]진성 실업'!$K$11</definedName>
+    <definedName name="진성기획량">'[2]진성 실업'!$B$11</definedName>
+    <definedName name="진성요척량">'[2]진성 실업'!$AA$11</definedName>
+    <definedName name="진성원불">'[2]진성 실업'!$AR$11</definedName>
+    <definedName name="진성정품입고">'[2]진성 실업'!$AP$11</definedName>
+    <definedName name="진성취불">'[2]진성 실업'!$AS$11</definedName>
     <definedName name="출력111" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
     <definedName name="출력2" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
     <definedName name="템플리트모듈1">BlankMacro1</definedName>
@@ -221,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="216">
   <si>
     <t>주제</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -258,10 +257,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>일반인 여성 사용자를 대상으로 한 모바일웹 플랫폼 구축</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -514,10 +509,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>대시보드 화면</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>화장품 등록 화면</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -538,18 +529,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>추천/리마인드 화면</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정 화면 (선택적)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 초기화 or 내보내기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>파일명</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -5323,54 +5302,6 @@
   </si>
   <si>
     <t>개정 내용 및 페이지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012.08.21 </t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.09.06</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.09.14</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.09.26</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.10.31</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.11.05</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.11.15</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.11.19</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.12.11</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.12.13</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012.12.17</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013.01.16</t>
-    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2025.05.12</t>
@@ -5859,6 +5790,66 @@
   <si>
     <t>등록한 화장품 편집(FEAT-10), 앱 데이터 관리(FEAT-11) 기능 추가
 (사이트맵에는 있었는데 요구사항정의서에만 누락된 부분)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈 탭(대시보드)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 사용할 화장품 추가 화면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>view-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>view-01-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>view-01-02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>view-01-02-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>view-02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>view-02-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>view-D-01</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>view-03</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 화면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장품 등록/수정/삭제 및 주기 설정 등 MVP 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4시간 걸림</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeTapPage.dart</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6798,10 +6789,142 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6816,155 +6939,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="35" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7006,40 +6997,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -7194,6 +7151,40 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -7489,24 +7480,6 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="화면관리"/>
-      <sheetName val="개정이력"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="분석 (2)"/>
       <sheetName val="Raw-data"/>
@@ -7549,7 +7522,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7568,7 +7541,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7613,7 +7586,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7659,18 +7632,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{010B9D6D-3BF0-4A1F-948A-39325BDC1977}" name="표1" displayName="표1" ref="B4:H13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="B4:H13" xr:uid="{010B9D6D-3BF0-4A1F-948A-39325BDC1977}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{010B9D6D-3BF0-4A1F-948A-39325BDC1977}" name="표1" displayName="표1" ref="B4:H12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="B4:H12" xr:uid="{010B9D6D-3BF0-4A1F-948A-39325BDC1977}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{73A9C77A-38F9-4126-9979-F3A06D0761F2}" name="번호" dataDxfId="10">
       <calculatedColumnFormula>ROW()-4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{9F3D241B-48A5-410B-9627-A1213BE8410F}" name="화면명" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{EB2648B7-1BAF-4B1F-AE5F-9CC68BD0658D}" name="화면 번호" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{25F673B8-4BB4-47A0-A8E5-4996AA4AC523}" name="파일명" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{4B0DBBA2-075E-49A3-AC49-EB2D74A165E7}" name="해야 되는 거" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{8BC8F455-6EF6-496F-974F-6F6CDAD0DC6C}" name="완성여부" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{8D716F0D-1F2E-48C8-93C6-0AF7F04B72EB}" name="비고" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{EB2648B7-1BAF-4B1F-AE5F-9CC68BD0658D}" name="화면 번호" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{25F673B8-4BB4-47A0-A8E5-4996AA4AC523}" name="파일명" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{4B0DBBA2-075E-49A3-AC49-EB2D74A165E7}" name="해야 되는 거" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{8BC8F455-6EF6-496F-974F-6F6CDAD0DC6C}" name="완성여부" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8D716F0D-1F2E-48C8-93C6-0AF7F04B72EB}" name="비고" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7880,7 +7853,7 @@
   <dimension ref="B1:AC61"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7959,11 +7932,11 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="2:29" ht="22.5" x14ac:dyDescent="0.75">
-      <c r="B3" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="10"/>
       <c r="F3" s="16"/>
       <c r="G3"/>
@@ -7992,12 +7965,12 @@
     </row>
     <row r="4" spans="2:29" ht="22.5" x14ac:dyDescent="0.75">
       <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="10"/>
       <c r="F4" s="66" t="s">
         <v>5</v>
@@ -8030,13 +8003,13 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="105">
         <v>45789</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="10"/>
       <c r="F5" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -8066,13 +8039,13 @@
       <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="87"/>
+      <c r="C6" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="108"/>
       <c r="E6" s="10"/>
       <c r="F6" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -8130,687 +8103,687 @@
     </row>
     <row r="8" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="E8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="F8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="G8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="H8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="I8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="J8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="K8" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="37" t="s">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="73" t="s">
+      <c r="C9" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="E9" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="57" t="s">
+      <c r="J9" s="57" t="s">
         <v>94</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>99</v>
       </c>
       <c r="K9" s="57"/>
       <c r="L9" s="58"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G10" s="58" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I10" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="57" t="s">
         <v>98</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>103</v>
       </c>
       <c r="K10" s="57"/>
       <c r="L10" s="58"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="116" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="119" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="117" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="117" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" s="118" t="s">
-        <v>193</v>
-      </c>
-      <c r="I11" s="116" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" s="116" t="s">
-        <v>195</v>
-      </c>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:29" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I12" s="60" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J12" s="60" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K12" s="60"/>
       <c r="L12" s="61"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>28</v>
-      </c>
       <c r="E13" s="63" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I13" s="63" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K13" s="63"/>
       <c r="L13" s="64"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F14" s="58" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J14" s="57" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="58"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:29" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H15" s="62" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I15" s="60" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J15" s="60" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K15" s="60"/>
       <c r="L15" s="61"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" s="63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I16" s="63" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K16" s="63"/>
       <c r="L16" s="64"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H17" s="59" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J17" s="57" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K17" s="57"/>
       <c r="L17" s="58"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H18" s="62" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J18" s="60" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K18" s="60"/>
       <c r="L18" s="61"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>36</v>
-      </c>
       <c r="E19" s="63" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G19" s="64" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H19" s="65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I19" s="63" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J19" s="63" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K19" s="63"/>
       <c r="L19" s="64"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
       <c r="D20" s="60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J20" s="60" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K20" s="60"/>
       <c r="L20" s="61"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>39</v>
-      </c>
       <c r="E21" s="63" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G21" s="64" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I21" s="63" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J21" s="63" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K21" s="63"/>
       <c r="L21" s="64"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G22" s="61" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H22" s="62" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I22" s="60" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J22" s="60" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K22" s="60"/>
       <c r="L22" s="61"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>42</v>
-      </c>
       <c r="E23" s="63" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H23" s="65" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I23" s="63" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J23" s="63" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K23" s="63"/>
       <c r="L23" s="64"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
       <c r="D24" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="49" t="s">
         <v>149</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="J24" s="49" t="s">
-        <v>154</v>
       </c>
       <c r="K24" s="49"/>
       <c r="L24" s="50"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="D25" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="E25" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="F25" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="G25" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="51" t="s">
-        <v>50</v>
-      </c>
       <c r="H25" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="48" t="s">
-        <v>25</v>
-      </c>
       <c r="J25" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K25" s="49"/>
       <c r="L25" s="50"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="70"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="F26" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="G26" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="46" t="s">
-        <v>54</v>
-      </c>
       <c r="H26" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K26" s="44"/>
       <c r="L26" s="45"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="D27" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="E27" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="F27" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="G27" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="51" t="s">
-        <v>60</v>
-      </c>
       <c r="H27" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I27" s="48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K27" s="49"/>
       <c r="L27" s="50"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="70"/>
-      <c r="C28" s="76"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="F28" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="G28" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="46" t="s">
-        <v>64</v>
-      </c>
       <c r="H28" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K28" s="44"/>
       <c r="L28" s="45"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="D29" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="E29" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="F29" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="G29" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="42" t="s">
-        <v>70</v>
-      </c>
       <c r="H29" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="41"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="72"/>
-      <c r="C30" s="78"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="112"/>
       <c r="D30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="F30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="G30" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="H30" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="8"/>
@@ -9043,19 +9016,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
@@ -9065,6 +9025,19 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B4:B6">
@@ -9097,8 +9070,8 @@
   </sheetPr>
   <dimension ref="B1:AC60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9180,11 +9153,11 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="2:29" ht="22.5" x14ac:dyDescent="0.75">
-      <c r="B3" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="10"/>
       <c r="F3" s="16"/>
       <c r="G3"/>
@@ -9213,12 +9186,12 @@
     </row>
     <row r="4" spans="2:29" ht="22.5" x14ac:dyDescent="0.75">
       <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="10"/>
       <c r="F4" s="66" t="s">
         <v>5</v>
@@ -9251,13 +9224,13 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="105">
         <v>45789</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="10"/>
       <c r="F5" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -9287,13 +9260,13 @@
       <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="87"/>
+      <c r="C6" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="108"/>
       <c r="E6" s="10"/>
       <c r="F6" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -9341,805 +9314,805 @@
     </row>
     <row r="8" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="E8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="F8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="G8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="H8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="I8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="J8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="K8" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="37" t="s">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="73" t="s">
+      <c r="C9" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="E9" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="57" t="s">
+      <c r="J9" s="57" t="s">
         <v>94</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>99</v>
       </c>
       <c r="K9" s="57"/>
       <c r="L9" s="58"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="98" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="95" t="s">
-        <v>173</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>168</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I10" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="57" t="s">
         <v>98</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>103</v>
       </c>
       <c r="K10" s="57"/>
       <c r="L10" s="58"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:29" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="60" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H11" s="62" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J11" s="60" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K11" s="60"/>
       <c r="L11" s="61"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>28</v>
-      </c>
       <c r="E12" s="63" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I12" s="63" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K12" s="63"/>
       <c r="L12" s="64"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G13" s="58" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J13" s="57" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K13" s="57"/>
       <c r="L13" s="58"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:29" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I14" s="60" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J14" s="60" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K14" s="60"/>
       <c r="L14" s="61"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" s="63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K15" s="63"/>
       <c r="L15" s="64"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J16" s="57" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K16" s="57"/>
       <c r="L16" s="58"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H17" s="62" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I17" s="60" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J17" s="60" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K17" s="60"/>
       <c r="L17" s="61"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>36</v>
-      </c>
       <c r="E18" s="63" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G18" s="64" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H18" s="65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I18" s="63" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K18" s="63"/>
       <c r="L18" s="64"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="99" t="s">
-        <v>169</v>
+        <v>129</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>164</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H19" s="62" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J19" s="60" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K19" s="60"/>
       <c r="L19" s="61"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>39</v>
-      </c>
       <c r="E20" s="63" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H20" s="65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I20" s="63" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J20" s="63" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K20" s="63"/>
       <c r="L20" s="64"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H21" s="62" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J21" s="60" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K21" s="60"/>
       <c r="L21" s="61"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>42</v>
-      </c>
       <c r="E22" s="63" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G22" s="64" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H22" s="65" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I22" s="63" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J22" s="63" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K22" s="63"/>
       <c r="L22" s="64"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="49" t="s">
         <v>149</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="J23" s="49" t="s">
-        <v>154</v>
       </c>
       <c r="K23" s="49"/>
       <c r="L23" s="50"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="113" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="D24" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="E24" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="F24" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="G24" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="51" t="s">
-        <v>50</v>
-      </c>
       <c r="H24" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="48" t="s">
-        <v>25</v>
-      </c>
       <c r="J24" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K24" s="49"/>
       <c r="L24" s="50"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="70"/>
-      <c r="C25" s="76"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="F25" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="G25" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="46" t="s">
-        <v>54</v>
-      </c>
       <c r="H25" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K25" s="44"/>
       <c r="L25" s="45"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="D26" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="E26" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="F26" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="G26" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="51" t="s">
-        <v>60</v>
-      </c>
       <c r="H26" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" s="48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K26" s="49"/>
       <c r="L26" s="50"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="70"/>
-      <c r="C27" s="76"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="110"/>
       <c r="D27" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="F27" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="G27" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="46" t="s">
-        <v>64</v>
-      </c>
       <c r="H27" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I27" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K27" s="44"/>
       <c r="L27" s="45"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="D28" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="E28" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="F28" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="G28" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="51" t="s">
-        <v>70</v>
-      </c>
       <c r="H28" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K28" s="49"/>
       <c r="L28" s="50"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="70"/>
-      <c r="C29" s="76"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="F29" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="G29" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="46" t="s">
-        <v>74</v>
-      </c>
       <c r="H29" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I29" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K29" s="44"/>
       <c r="L29" s="45"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:13" ht="39" x14ac:dyDescent="0.35">
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="2:13" ht="39.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="90" t="s">
+      <c r="F31" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="E30" s="90" t="s">
+      <c r="G31" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="G30" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="H30" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="I30" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="J30" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="K30" s="90"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="2:13" ht="39.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="93" t="s">
+      <c r="I31" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="G31" s="93" t="s">
-        <v>165</v>
-      </c>
-      <c r="H31" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="I31" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="J31" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="K31" s="92"/>
-      <c r="L31" s="93"/>
+      <c r="J31" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="70"/>
+      <c r="L31" s="71"/>
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="120" t="s">
-        <v>205</v>
+      <c r="B32" s="113" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="117" t="s">
+        <v>188</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="G32" s="51"/>
       <c r="H32" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I32" s="48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="50"/>
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:29" ht="39" x14ac:dyDescent="0.35">
-      <c r="B33" s="71"/>
-      <c r="C33" s="121"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="118"/>
       <c r="D33" s="11" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="8"/>
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:29" ht="39" x14ac:dyDescent="0.35">
-      <c r="B34" s="72"/>
-      <c r="C34" s="122"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="119"/>
       <c r="D34" s="11" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="8"/>
@@ -10478,6 +10451,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B30:B31"/>
@@ -10486,24 +10477,6 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B4:B6">
@@ -10531,16 +10504,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA85327B-553E-42A5-8E20-7CCAD0C92D98}">
-  <dimension ref="B2:H13"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="35.796875" customWidth="1"/>
+    <col min="3" max="3" width="28.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -10551,14 +10525,14 @@
       <c r="B2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="C2" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
     </row>
     <row r="3" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10566,13 +10540,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>3</v>
@@ -10581,7 +10555,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
@@ -10590,46 +10564,56 @@
         <v>1</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="26"/>
+        <v>201</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>203</v>
+      </c>
       <c r="E5" s="30" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="55"/>
+      <c r="G5" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="6" spans="2:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="33">
-        <f t="shared" ref="B6:B12" si="0">ROW()-4</f>
+      <c r="B6" s="23">
+        <f>ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="26"/>
+      <c r="C6" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>204</v>
+      </c>
       <c r="E6" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+        <v>87</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="23">
-        <f t="shared" si="0"/>
+    <row r="7" spans="2:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="33">
+        <f t="shared" ref="B7:B11" si="0">ROW()-4</f>
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>209</v>
+      </c>
       <c r="E7" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="25"/>
+        <v>87</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10638,13 +10622,15 @@
         <v>4</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="26"/>
+        <v>82</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>207</v>
+      </c>
       <c r="E8" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="28"/>
+        <v>87</v>
+      </c>
+      <c r="F8" s="36"/>
       <c r="G8" s="25"/>
       <c r="H8" s="24"/>
     </row>
@@ -10653,12 +10639,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="89"/>
+      <c r="C9" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="E9" s="30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="25"/>
@@ -10670,13 +10658,15 @@
         <v>6</v>
       </c>
       <c r="C10" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="25"/>
       <c r="H10" s="24"/>
     </row>
@@ -10686,47 +10676,35 @@
         <v>7</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="89"/>
+        <v>211</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>210</v>
+      </c>
       <c r="E11" s="30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="23">
-        <f t="shared" si="0"/>
+    <row r="12" spans="2:8" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B12" s="76">
+        <f>ROW()-4</f>
         <v>8</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="26"/>
+      <c r="C12" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>208</v>
+      </c>
       <c r="E12" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+        <v>87</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="2:8" ht="16.899999999999999" x14ac:dyDescent="0.35">
-      <c r="B13" s="100">
-        <f>ROW()-4</f>
-        <v>9</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10742,376 +10720,326 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF739AA-6759-488A-9184-2089BEEE3362}">
-  <dimension ref="B6:E51"/>
+  <dimension ref="B4:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.796875" style="103" customWidth="1"/>
-    <col min="2" max="2" width="4.53125" style="103" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.06640625" style="103" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.796875" style="103" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="103" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.06640625" style="103"/>
+    <col min="1" max="1" width="5.796875" style="79" customWidth="1"/>
+    <col min="2" max="2" width="4.53125" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.06640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.796875" style="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.06640625" style="79"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="102" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="102" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="102" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="104">
+    <row r="4" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="80">
         <v>1</v>
       </c>
-      <c r="C7" s="105" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="106" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="107"/>
+      <c r="C5" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="83"/>
+    </row>
+    <row r="6" spans="2:5" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="90">
+        <v>2</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="87"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="114">
-        <v>2</v>
-      </c>
-      <c r="C8" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" s="110" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="111"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="112" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="110" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="111"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="112" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="110" t="s">
-        <v>202</v>
-      </c>
+      <c r="E8" s="86" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="87"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="86"/>
+    </row>
+    <row r="10" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="87"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="111"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="110"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="86"/>
     </row>
     <row r="12" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="111"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="86"/>
     </row>
     <row r="13" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="111"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="110"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="86"/>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="111">
-        <v>1.2</v>
-      </c>
-      <c r="C14" s="108" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="110"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="86"/>
     </row>
     <row r="15" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="111">
-        <v>1.3</v>
-      </c>
-      <c r="C15" s="108" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="110"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="86"/>
     </row>
     <row r="16" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="111">
-        <v>1.4</v>
-      </c>
-      <c r="C16" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="110"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="86"/>
     </row>
     <row r="17" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="111">
-        <v>1.6</v>
-      </c>
-      <c r="C17" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="110"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="86"/>
     </row>
     <row r="18" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="111"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="110"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="86"/>
     </row>
     <row r="19" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="111"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="110"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="86"/>
     </row>
     <row r="20" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="111"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="110"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="86"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="111"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="110"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="86"/>
     </row>
     <row r="22" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="111"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="110"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="86"/>
     </row>
     <row r="23" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="111"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="110"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="86"/>
     </row>
     <row r="24" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="111"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="110"/>
-    </row>
-    <row r="25" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="111"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="110"/>
-    </row>
-    <row r="26" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="111">
-        <v>1.7</v>
-      </c>
-      <c r="C26" s="110" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="110"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="86"/>
+    </row>
+    <row r="25" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="86"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="86"/>
+    </row>
+    <row r="26" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="87"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="86"/>
     </row>
     <row r="27" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="110" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="110"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="86"/>
     </row>
     <row r="28" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="111"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="110"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="86"/>
     </row>
     <row r="29" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="111">
-        <v>2.1</v>
-      </c>
-      <c r="C29" s="110" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="110"/>
-    </row>
-    <row r="30" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="111"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="110"/>
-    </row>
-    <row r="31" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="111">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C31" s="110" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="110"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="86"/>
+    </row>
+    <row r="30" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="87"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="86"/>
+    </row>
+    <row r="31" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="87"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="86"/>
     </row>
     <row r="32" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="111"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="110"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="86"/>
     </row>
     <row r="33" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="111">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C33" s="110" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33" s="112"/>
-      <c r="E33" s="110"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="86"/>
     </row>
     <row r="34" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="111"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="110"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="86"/>
     </row>
     <row r="35" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="111"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="110"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="86"/>
     </row>
     <row r="36" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="111"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="110"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="86"/>
     </row>
     <row r="37" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="111"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="110"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="86"/>
     </row>
     <row r="38" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="111"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="110"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="86"/>
     </row>
     <row r="39" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="111"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="110"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="86"/>
     </row>
     <row r="40" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="111"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="110"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="86"/>
     </row>
     <row r="41" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="111">
-        <v>2.4</v>
-      </c>
-      <c r="C41" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" s="112"/>
-      <c r="E41" s="110"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="86"/>
     </row>
     <row r="42" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="111">
-        <v>2.5</v>
-      </c>
-      <c r="C42" s="110" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="112"/>
-      <c r="E42" s="110"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="86"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="111"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="110"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="86"/>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="111"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="110"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="86"/>
     </row>
     <row r="45" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="111">
-        <v>2.6</v>
-      </c>
-      <c r="C45" s="110" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="112"/>
-      <c r="E45" s="110"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="86"/>
     </row>
     <row r="46" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="111">
-        <v>2.7</v>
-      </c>
-      <c r="C46" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="D46" s="112"/>
-      <c r="E46" s="110"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="86"/>
     </row>
     <row r="47" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="111"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="110"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="86"/>
     </row>
     <row r="48" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="111"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="110"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="86"/>
     </row>
     <row r="49" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="111"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="112"/>
-      <c r="E49" s="110"/>
-    </row>
-    <row r="50" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="111"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="110"/>
-    </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="111"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="110"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/skincare_요구사항정의서.xlsx
+++ b/skincare_요구사항정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joohy\Desktop\3-1학기 자료\앱프로그래밍응용\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A8EE70-5D32-4D24-AC3E-F1587E38DB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6AC391-1F11-4DFF-8421-4512D9946000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="앱 요구사항정의서_1.0(원본)" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="228">
   <si>
     <t>주제</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -5841,15 +5841,76 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>4시간 걸림</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>homeTapPage.dart</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련 위젯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>listTabPage.dart</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SettingTabPage.dart</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제소요시간</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지별 예상 소요시간은 각 페이지 당 3시간</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectTodayProductsPage.dart</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUsedCheckPage.dart</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5시간</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UsageEvaluationPage.dart</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 수정 필요</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>newProductPage.dart</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>하는 중</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5860,7 +5921,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6164,6 +6225,14 @@
       <strike/>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -6665,9 +6734,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6876,16 +6942,40 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6915,30 +7005,6 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6956,6 +7022,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6966,7 +7035,41 @@
     <cellStyle name="표준 2" xfId="3" xr:uid="{04629F2B-1F44-46C7-92A3-4E283C47C99C}"/>
     <cellStyle name="표준 3" xfId="5" xr:uid="{689C8B9C-73C0-4396-9006-DA740E2D734E}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7632,18 +7735,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{010B9D6D-3BF0-4A1F-948A-39325BDC1977}" name="표1" displayName="표1" ref="B4:H12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="B4:H12" xr:uid="{010B9D6D-3BF0-4A1F-948A-39325BDC1977}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{73A9C77A-38F9-4126-9979-F3A06D0761F2}" name="번호" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{010B9D6D-3BF0-4A1F-948A-39325BDC1977}" name="표1" displayName="표1" ref="B4:I12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="B4:I12" xr:uid="{010B9D6D-3BF0-4A1F-948A-39325BDC1977}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{73A9C77A-38F9-4126-9979-F3A06D0761F2}" name="번호" dataDxfId="11">
       <calculatedColumnFormula>ROW()-4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9F3D241B-48A5-410B-9627-A1213BE8410F}" name="화면명" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{EB2648B7-1BAF-4B1F-AE5F-9CC68BD0658D}" name="화면 번호" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{25F673B8-4BB4-47A0-A8E5-4996AA4AC523}" name="파일명" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{4B0DBBA2-075E-49A3-AC49-EB2D74A165E7}" name="해야 되는 거" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{8BC8F455-6EF6-496F-974F-6F6CDAD0DC6C}" name="완성여부" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8D716F0D-1F2E-48C8-93C6-0AF7F04B72EB}" name="비고" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{9F3D241B-48A5-410B-9627-A1213BE8410F}" name="화면명" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{EB2648B7-1BAF-4B1F-AE5F-9CC68BD0658D}" name="화면 번호" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{25F673B8-4BB4-47A0-A8E5-4996AA4AC523}" name="파일명" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{095981F3-ACC1-418D-B72F-1F005A770DC8}" name="관련 위젯" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{4B0DBBA2-075E-49A3-AC49-EB2D74A165E7}" name="해야 되는 거" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{8BC8F455-6EF6-496F-974F-6F6CDAD0DC6C}" name="완성여부" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{8D716F0D-1F2E-48C8-93C6-0AF7F04B72EB}" name="실제소요시간" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7932,11 +8036,11 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="2:29" ht="22.5" x14ac:dyDescent="0.75">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="10"/>
       <c r="F3" s="16"/>
       <c r="G3"/>
@@ -7967,12 +8071,12 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="65" t="s">
         <v>5</v>
       </c>
       <c r="G4"/>
@@ -8003,12 +8107,12 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5" s="112">
         <v>45789</v>
       </c>
-      <c r="D5" s="106"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>77</v>
       </c>
       <c r="G5"/>
@@ -8039,12 +8143,12 @@
       <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>78</v>
       </c>
       <c r="G6"/>
@@ -8102,668 +8206,668 @@
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="57" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="92" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="94" t="s">
+      <c r="H11" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="I11" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="J11" s="92" t="s">
+      <c r="J11" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="92"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:29" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="60" t="s">
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="63"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="57" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:29" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="60" t="s">
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="60" t="s">
+      <c r="J15" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="65" t="s">
+      <c r="H16" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="J16" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="63"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="57" t="s">
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="60" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="62" t="s">
+      <c r="H18" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="I18" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="60" t="s">
+      <c r="J18" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="60"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="65" t="s">
+      <c r="H19" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="63" t="s">
+      <c r="I19" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="63"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="60" t="s">
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I20" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="61"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="60"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C21" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="65" t="s">
+      <c r="H21" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="63" t="s">
+      <c r="I21" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="63"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="60" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="62" t="s">
+      <c r="H22" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="I22" s="60" t="s">
+      <c r="I22" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="61"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="F23" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="H23" s="65" t="s">
+      <c r="H23" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I23" s="63" t="s">
+      <c r="I23" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="K23" s="63"/>
-      <c r="L23" s="64"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="48" t="s">
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="49"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H25" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="49" t="s">
+      <c r="J25" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="K25" s="49"/>
-      <c r="L25" s="50"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="114"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="43" t="s">
+      <c r="B26" s="98"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="44" t="s">
+      <c r="J26" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="44"/>
-      <c r="L26" s="45"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="49" t="s">
+      <c r="J27" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="49"/>
-      <c r="L27" s="50"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="49"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="114"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="43" t="s">
+      <c r="B28" s="98"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="44" t="s">
+      <c r="J28" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="44"/>
-      <c r="L28" s="45"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="39" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="41" t="s">
         <v>69</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="I29" s="39" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K29" s="17"/>
-      <c r="L29" s="41"/>
+      <c r="L29" s="40"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="116"/>
-      <c r="C30" s="112"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="106"/>
       <c r="D30" s="11" t="s">
         <v>70</v>
       </c>
@@ -8776,7 +8880,7 @@
       <c r="G30" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="38" t="s">
         <v>43</v>
       </c>
       <c r="I30" s="11" t="s">
@@ -9016,6 +9120,19 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
@@ -9025,19 +9142,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B4:B6">
@@ -9051,10 +9155,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H30">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="중">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="중">
       <formula>NOT(ISERROR(SEARCH("중",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="상">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="상">
       <formula>NOT(ISERROR(SEARCH("상",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9153,11 +9257,11 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="2:29" ht="22.5" x14ac:dyDescent="0.75">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="10"/>
       <c r="F3" s="16"/>
       <c r="G3"/>
@@ -9188,12 +9292,12 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="65" t="s">
         <v>5</v>
       </c>
       <c r="G4"/>
@@ -9224,12 +9328,12 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="105">
+      <c r="C5" s="112">
         <v>45789</v>
       </c>
-      <c r="D5" s="106"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>77</v>
       </c>
       <c r="G5"/>
@@ -9260,12 +9364,12 @@
       <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>78</v>
       </c>
       <c r="G6"/>
@@ -9313,758 +9417,758 @@
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="57" t="s">
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:29" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="60" t="s">
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="61"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="60"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="65" t="s">
+      <c r="H12" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="57" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:29" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="60" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="60" t="s">
+      <c r="J14" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="61"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="63" t="s">
+      <c r="I15" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="63"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="57" t="s">
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="57" t="s">
+      <c r="J16" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="60" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="60"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="95" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="65" t="s">
+      <c r="H18" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="63" t="s">
+      <c r="I18" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="63"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="60" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="60"/>
-      <c r="L19" s="61"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="60"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="64" t="s">
+      <c r="G20" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="65" t="s">
+      <c r="H20" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="63" t="s">
+      <c r="I20" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="60" t="s">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="62" t="s">
+      <c r="H21" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="I21" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="61"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="60"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="99" t="s">
+      <c r="C22" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="65" t="s">
+      <c r="H22" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I22" s="63" t="s">
+      <c r="I22" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="63"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="48" t="s">
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="52" t="s">
+      <c r="H23" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="J23" s="49" t="s">
+      <c r="J23" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K23" s="49"/>
-      <c r="L23" s="50"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="49"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="49"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="114"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="43" t="s">
+      <c r="B25" s="98"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="44" t="s">
+      <c r="J25" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="45"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="44"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="113" t="s">
+      <c r="B26" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="49" t="s">
+      <c r="J26" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="49"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="114"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="43" t="s">
+      <c r="B27" s="98"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="44"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="49" t="s">
+      <c r="J28" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="49"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="114"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="43" t="s">
+      <c r="B29" s="98"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="43" t="s">
+      <c r="I29" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="44" t="s">
+      <c r="J29" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="44"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:13" ht="39" x14ac:dyDescent="0.35">
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="69" t="s">
+      <c r="F30" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="71" t="s">
+      <c r="G30" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="H30" s="72" t="s">
+      <c r="H30" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="I30" s="70" t="s">
+      <c r="I30" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="J30" s="70" t="s">
+      <c r="J30" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="K30" s="68"/>
-      <c r="L30" s="69"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="68"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="2:13" ht="39.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="70" t="s">
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="F31" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="H31" s="72" t="s">
+      <c r="H31" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="I31" s="70" t="s">
+      <c r="I31" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="J31" s="70" t="s">
+      <c r="J31" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="70"/>
-      <c r="L31" s="71"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="C32" s="117" t="s">
+      <c r="C32" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="52" t="s">
+      <c r="G32" s="50"/>
+      <c r="H32" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="49" t="s">
+      <c r="J32" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="K32" s="49"/>
-      <c r="L32" s="50"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="49"/>
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:29" ht="39" x14ac:dyDescent="0.35">
-      <c r="B33" s="115"/>
-      <c r="C33" s="118"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="11" t="s">
         <v>190</v>
       </c>
@@ -10077,7 +10181,7 @@
       <c r="G33" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="38" t="s">
         <v>43</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -10091,8 +10195,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:29" ht="39" x14ac:dyDescent="0.35">
-      <c r="B34" s="116"/>
-      <c r="C34" s="119"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="11" t="s">
         <v>197</v>
       </c>
@@ -10105,7 +10209,7 @@
       <c r="G34" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="38" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -10451,24 +10555,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="B30:B31"/>
@@ -10477,6 +10563,24 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B4:B6">
@@ -10490,10 +10594,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H34">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="중">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="중">
       <formula>NOT(ISERROR(SEARCH("중",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="상">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="상">
       <formula>NOT(ISERROR(SEARCH("상",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10504,10 +10608,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA85327B-553E-42A5-8E20-7CCAD0C92D98}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -10515,27 +10619,29 @@
     <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.06640625" customWidth="1"/>
+    <col min="7" max="7" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="56" t="s">
+    <row r="2" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="121" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-    </row>
-    <row r="3" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+    </row>
+    <row r="3" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
@@ -10549,38 +10655,42 @@
         <v>85</v>
       </c>
       <c r="F4" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="29">
+      <c r="I4" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="31" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="28">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="31" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="23">
         <f>ROW()-4</f>
         <v>2</v>
@@ -10588,127 +10698,163 @@
       <c r="C6" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="2:8" s="32" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="33">
+      <c r="E6" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="31" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="32">
         <f t="shared" ref="B7:B11" si="0">ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="2:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="122" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="2:8" ht="16.899999999999999" x14ac:dyDescent="0.35">
-      <c r="B12" s="76">
+      <c r="E11" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="16.899999999999999" x14ac:dyDescent="0.35">
+      <c r="B12" s="75">
         <f>ROW()-4</f>
         <v>8</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="22"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="31" t="s">
+        <v>219</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10722,324 +10868,324 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF739AA-6759-488A-9184-2089BEEE3362}">
   <dimension ref="B4:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.796875" style="79" customWidth="1"/>
-    <col min="2" max="2" width="4.53125" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.06640625" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.796875" style="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.06640625" style="79"/>
+    <col min="1" max="1" width="5.796875" style="78" customWidth="1"/>
+    <col min="2" max="2" width="4.53125" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.06640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.796875" style="78" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.06640625" style="78"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="77" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="80">
+      <c r="B5" s="79">
         <v>1</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="83"/>
+      <c r="E5" s="82"/>
     </row>
     <row r="6" spans="2:5" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="90">
+      <c r="B6" s="89">
         <v>2</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="85" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="87"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="88" t="s">
+      <c r="B7" s="86"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="85" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="87"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="88" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="85" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="87"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="86"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="85"/>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="87"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="87"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="86"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="85"/>
     </row>
     <row r="12" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="85"/>
     </row>
     <row r="13" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="87"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="85"/>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="87"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="85"/>
     </row>
     <row r="15" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="87"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="85"/>
     </row>
     <row r="16" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="87"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="85"/>
     </row>
     <row r="17" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="85"/>
     </row>
     <row r="18" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="87"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="85"/>
     </row>
     <row r="19" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="87"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="85"/>
     </row>
     <row r="20" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="87"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="85"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="87"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="85"/>
     </row>
     <row r="22" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="87"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="85"/>
     </row>
     <row r="23" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="87"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="85"/>
     </row>
     <row r="24" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="87"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="85"/>
     </row>
     <row r="25" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="86"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="86"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="85"/>
     </row>
     <row r="26" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="87"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="85"/>
     </row>
     <row r="27" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="87"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="85"/>
     </row>
     <row r="28" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="87"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="85"/>
     </row>
     <row r="29" spans="2:5" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="85"/>
     </row>
     <row r="30" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="87"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="85"/>
     </row>
     <row r="31" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="87"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="85"/>
     </row>
     <row r="32" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="87"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="85"/>
     </row>
     <row r="33" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="87"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="85"/>
     </row>
     <row r="34" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="87"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="85"/>
     </row>
     <row r="35" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="87"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="85"/>
     </row>
     <row r="36" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="87"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="85"/>
     </row>
     <row r="37" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="87"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="85"/>
     </row>
     <row r="38" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="87"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="85"/>
     </row>
     <row r="39" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="87"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="85"/>
     </row>
     <row r="40" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="87"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="85"/>
     </row>
     <row r="41" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="87"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="86"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="85"/>
     </row>
     <row r="42" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="87"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="85"/>
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="87"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="86"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="85"/>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="87"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="86"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="85"/>
     </row>
     <row r="45" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="87"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="86"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="85"/>
     </row>
     <row r="46" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="87"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="86"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="85"/>
     </row>
     <row r="47" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="87"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="86"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="85"/>
     </row>
     <row r="48" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="87"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="86"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="85"/>
     </row>
     <row r="49" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="87"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="86"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/skincare_요구사항정의서.xlsx
+++ b/skincare_요구사항정의서.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joohy\Desktop\3-1학기 자료\앱프로그래밍응용\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6AC391-1F11-4DFF-8421-4512D9946000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BA3B32-A9EA-40F5-A7D2-9D9117B48347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="앱 요구사항정의서_1.0(원본)" sheetId="1" r:id="rId1"/>
     <sheet name="앱 요구사항정의서_2.0" sheetId="3" r:id="rId2"/>
-    <sheet name="페이지 관리" sheetId="2" r:id="rId3"/>
-    <sheet name="요구사항개정이력" sheetId="4" r:id="rId4"/>
+    <sheet name="앱 요구사항정의서_3.0" sheetId="5" r:id="rId3"/>
+    <sheet name="페이지 관리" sheetId="2" r:id="rId4"/>
+    <sheet name="요구사항개정이력" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Database">#REF!</definedName>
+    <definedName name="f" localSheetId="2">BlankMacro1</definedName>
     <definedName name="f">BlankMacro1</definedName>
     <definedName name="HTML_CodePage" hidden="1">949</definedName>
     <definedName name="HTML_Control" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
@@ -44,12 +46,18 @@
     <definedName name="HTML_Title" hidden="1">"juyo9803"</definedName>
     <definedName name="Print_Title">#REF!</definedName>
     <definedName name="Sw_pop">[1]Sw_pop!#REF!</definedName>
+    <definedName name="개인별분배" localSheetId="2">BlankMacro1</definedName>
     <definedName name="개인별분배">BlankMacro1</definedName>
+    <definedName name="개인별분배_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="개인별분배_1">BlankMacro1</definedName>
+    <definedName name="개인별분배_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="개인별분배_4">BlankMacro1</definedName>
     <definedName name="개인별분배_5">#NAME?</definedName>
+    <definedName name="개인별분배_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="개인별분배_6">BlankMacro1</definedName>
+    <definedName name="과장" localSheetId="2">BlankMacro1</definedName>
     <definedName name="과장">BlankMacro1</definedName>
+    <definedName name="과장_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="과장_6">BlankMacro1</definedName>
     <definedName name="금호기타불량">'[2]금호 산업'!$AT$13</definedName>
     <definedName name="금호기획">'[2]금호 산업'!$K$13</definedName>
@@ -60,22 +68,37 @@
     <definedName name="금호취불">'[2]금호 산업'!$AS$13</definedName>
     <definedName name="기획">'[3]96 FW 기획_ 진행 현황'!$A$155,'[3]96 FW 기획_ 진행 현황'!$A$156,'[3]96 FW 기획_ 진행 현황'!$A$157,'[3]96 FW 기획_ 진행 현황'!$A$158,'[3]96 FW 기획_ 진행 현황'!$A$159,'[3]96 FW 기획_ 진행 현황'!$A$226,'[3]96 FW 기획_ 진행 현황'!$A$227,'[3]96 FW 기획_ 진행 현황'!$A$228,'[3]96 FW 기획_ 진행 현황'!$A$229,'[3]96 FW 기획_ 진행 현황'!$A$230,'[3]96 FW 기획_ 진행 현황'!$A$231,'[3]96 FW 기획_ 진행 현황'!$A$232,'[3]96 FW 기획_ 진행 현황'!$A$233,'[3]96 FW 기획_ 진행 현황'!$A$234,'[3]96 FW 기획_ 진행 현황'!$A$235</definedName>
     <definedName name="기획량">'[3]96 FW 기획_ 진행 현황'!$E$155,'[3]96 FW 기획_ 진행 현황'!$E$156,'[3]96 FW 기획_ 진행 현황'!$E$157,'[3]96 FW 기획_ 진행 현황'!$E$158,'[3]96 FW 기획_ 진행 현황'!$E$159,'[3]96 FW 기획_ 진행 현황'!$E$226,'[3]96 FW 기획_ 진행 현황'!$E$227,'[3]96 FW 기획_ 진행 현황'!$E$228,'[3]96 FW 기획_ 진행 현황'!$E$229,'[3]96 FW 기획_ 진행 현황'!$E$230,'[3]96 FW 기획_ 진행 현황'!$E$231,'[3]96 FW 기획_ 진행 현황'!$E$232,'[3]96 FW 기획_ 진행 현황'!$E$233,'[3]96 FW 기획_ 진행 현황'!$E$234,'[3]96 FW 기획_ 진행 현황'!$E$235</definedName>
+    <definedName name="ㄴㅌ" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㄴㅌ">BlankMacro1</definedName>
+    <definedName name="ㄴㅌ_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㄴㅌ_1">BlankMacro1</definedName>
+    <definedName name="ㄴㅌ_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㄴㅌ_4">BlankMacro1</definedName>
+    <definedName name="ㄴㅌ_5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㄴㅌ_5">BlankMacro1</definedName>
+    <definedName name="ㄴㅌ_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㄴㅌ_6">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㄹㅇㄹㅇ">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㄹㅇㄹㅇ_1">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㄹㅇㄹㅇ_4">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ_5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㄹㅇㄹㅇ_5">BlankMacro1</definedName>
+    <definedName name="ㄹㅇㄹㅇ_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㄹㅇㄹㅇ_6">BlankMacro1</definedName>
     <definedName name="ㅁ742">#REF!</definedName>
     <definedName name="ㅁ84">#REF!</definedName>
+    <definedName name="목차" localSheetId="2">BlankMacro1</definedName>
     <definedName name="목차">BlankMacro1</definedName>
+    <definedName name="목차_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="목차_1">BlankMacro1</definedName>
+    <definedName name="목차_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="목차_4">BlankMacro1</definedName>
+    <definedName name="목차_5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="목차_5">BlankMacro1</definedName>
+    <definedName name="목차_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="목차_6">BlankMacro1</definedName>
     <definedName name="보기월1">#REF!</definedName>
     <definedName name="보기월10">#REF!</definedName>
@@ -91,14 +114,23 @@
     <definedName name="보기월9">#REF!</definedName>
     <definedName name="부가출력" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
     <definedName name="부록표지" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
+    <definedName name="새이름ㅇㅇㅇ" localSheetId="2">BlankMacro1</definedName>
     <definedName name="새이름ㅇㅇㅇ">BlankMacro1</definedName>
+    <definedName name="새이름ㅇㅇㅇ_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="새이름ㅇㅇㅇ_6">BlankMacro1</definedName>
+    <definedName name="ㅇ" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㅇ">BlankMacro1</definedName>
+    <definedName name="ㅇ_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㅇ_6">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㅇㄴ">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㅇㄴ_1">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㅇㄴ_4">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ_5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㅇㄴ_5">BlankMacro1</definedName>
+    <definedName name="ㅇㄴ_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="ㅇㄴ_6">BlankMacro1</definedName>
     <definedName name="요척량">'[3]96 FW 기획_ 진행 현황'!$V$155,'[3]96 FW 기획_ 진행 현황'!$V$156,'[3]96 FW 기획_ 진행 현황'!$V$157,'[3]96 FW 기획_ 진행 현황'!$V$158,'[3]96 FW 기획_ 진행 현황'!$V$159,'[3]96 FW 기획_ 진행 현황'!$V$226,'[3]96 FW 기획_ 진행 현황'!$V$227,'[3]96 FW 기획_ 진행 현황'!$V$228,'[3]96 FW 기획_ 진행 현황'!$V$229,'[3]96 FW 기획_ 진행 현황'!$V$230,'[3]96 FW 기획_ 진행 현황'!$V$231,'[3]96 FW 기획_ 진행 현황'!$V$232,'[3]96 FW 기획_ 진행 현황'!$V$233,'[3]96 FW 기획_ 진행 현황'!$V$234,'[3]96 FW 기획_ 진행 현황'!$V$235</definedName>
     <definedName name="우진기타불량">'[2]우진 I_S'!$AT$24</definedName>
@@ -121,11 +153,17 @@
     <definedName name="월8">#REF!</definedName>
     <definedName name="월9">#REF!</definedName>
     <definedName name="월전체">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
+    <definedName name="유통2팀" localSheetId="2">BlankMacro1</definedName>
     <definedName name="유통2팀">BlankMacro1</definedName>
+    <definedName name="유통2팀_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="유통2팀_1">BlankMacro1</definedName>
+    <definedName name="유통2팀_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="유통2팀_4">BlankMacro1</definedName>
+    <definedName name="유통2팀_5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="유통2팀_5">BlankMacro1</definedName>
+    <definedName name="유통2팀_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="유통2팀_6">BlankMacro1</definedName>
+    <definedName name="의무" localSheetId="2">BlankMacro1</definedName>
     <definedName name="의무">BlankMacro1</definedName>
     <definedName name="장소1">#REF!</definedName>
     <definedName name="장소10">#REF!</definedName>
@@ -140,10 +178,15 @@
     <definedName name="장소8">#REF!</definedName>
     <definedName name="장소9">#REF!</definedName>
     <definedName name="장소전체">#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
+    <definedName name="전사성과급규모" localSheetId="2">BlankMacro1</definedName>
     <definedName name="전사성과급규모">BlankMacro1</definedName>
+    <definedName name="전사성과급규모_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="전사성과급규모_1">BlankMacro1</definedName>
+    <definedName name="전사성과급규모_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="전사성과급규모_4">BlankMacro1</definedName>
+    <definedName name="전사성과급규모_5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="전사성과급규모_5">BlankMacro1</definedName>
+    <definedName name="전사성과급규모_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="전사성과급규모_6">BlankMacro1</definedName>
     <definedName name="정품">'[3]96 FW 기획_ 진행 현황'!$W$235,'[3]96 FW 기획_ 진행 현황'!$W$234,'[3]96 FW 기획_ 진행 현황'!$W$233,'[3]96 FW 기획_ 진행 현황'!$W$232,'[3]96 FW 기획_ 진행 현황'!$W$231,'[3]96 FW 기획_ 진행 현황'!$W$230,'[3]96 FW 기획_ 진행 현황'!$W$229,'[3]96 FW 기획_ 진행 현황'!$W$228,'[3]96 FW 기획_ 진행 현황'!$W$227,'[3]96 FW 기획_ 진행 현황'!$W$226,'[3]96 FW 기획_ 진행 현황'!$W$159,'[3]96 FW 기획_ 진행 현황'!$W$158,'[3]96 FW 기획_ 진행 현황'!$W$157,'[3]96 FW 기획_ 진행 현황'!$W$156,'[3]96 FW 기획_ 진행 현황'!$W$155</definedName>
     <definedName name="제일기타불량">'[2]제일 합섬'!$AT$7</definedName>
@@ -165,41 +208,76 @@
     <definedName name="진성취불">'[2]진성 실업'!$AS$11</definedName>
     <definedName name="출력111" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
     <definedName name="출력2" hidden="1">{"'juyo9803'!$A$1:$F$35"}</definedName>
+    <definedName name="템플리트모듈1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈1_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈1_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈1_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈1_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈1_5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈1_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈1_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈1_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈2">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈2_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈2_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2_5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈2_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈2_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈2_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈3">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈3_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈3_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3_5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈3_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈3_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈3_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈4_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈4_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4_5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈4_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈4_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈4_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈5_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈5_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5_5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈5_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈5_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈5_6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈6">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈6_1">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈6_4">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6_5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈6_5">BlankMacro1</definedName>
+    <definedName name="템플리트모듈6_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="템플리트모듈6_6">BlankMacro1</definedName>
     <definedName name="틀고정">#REF!</definedName>
+    <definedName name="한" localSheetId="2">BlankMacro1</definedName>
     <definedName name="한">BlankMacro1</definedName>
+    <definedName name="한_1" localSheetId="2">BlankMacro1</definedName>
     <definedName name="한_1">BlankMacro1</definedName>
+    <definedName name="한_4" localSheetId="2">BlankMacro1</definedName>
     <definedName name="한_4">BlankMacro1</definedName>
+    <definedName name="한_5" localSheetId="2">BlankMacro1</definedName>
     <definedName name="한_5">BlankMacro1</definedName>
+    <definedName name="한_6" localSheetId="2">BlankMacro1</definedName>
     <definedName name="한_6">BlankMacro1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -220,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="240">
   <si>
     <t>주제</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -509,10 +587,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>화장품 등록 화면</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>화면명</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -535,10 +609,6 @@
   <si>
     <t>비고</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>.dart</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5910,7 +5980,461 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>하는 중</t>
+    <t>화장품 등록/수정 화면</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>newProductPage.dart</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(중복)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6시간</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가지 옵션 중 하나로 선택할 수 있다. 사용자가 선택한 옵션에 따라서 사용 계획이 다르게 저장된다.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>화장품을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>목록에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>화장품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>화장품을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>목록에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삭제할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>화장품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>식별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>필수</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-05-02</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 구현 목표 기능 수정.
+REQ-05-02 푸시 알림 전송, REQ-10-02 등록된 화장품 삭제 기능 구현 보류.
+푸시 알림은 flutter_local_notifications 패키지를 사용할 계획이었으나 가장 최근 버전에서는 반복적인 푸시 알림 기능은 제공하지 않아 android_alarm_manager_plus 패키지 사용할 예정. 시간 부족으로 푸시 알림 기능은 1차 업데이트 시 제공하는 기능으로 두고 설정 탭에서 안내메시지로 업데이트 시 제공되는 기능임을 안내
+화장품 삭제 기능은 데이터 손실 방지를 위해 현재는 제공하지 않지만 추후 데이터 손실 문제를 해결할 방법을 찾으면 제공하기로 함</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 구현 보류</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위 상에 해당하는 기능 개발 완료 (푸시 알림 및 화장품 삭제는 보류함)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -5921,7 +6445,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6235,6 +6759,29 @@
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -6668,7 +7215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6942,6 +7489,15 @@
     <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7023,9 +7579,6 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 강조색1" xfId="4" builtinId="30"/>
@@ -7035,40 +7588,20 @@
     <cellStyle name="표준 2" xfId="3" xr:uid="{04629F2B-1F44-46C7-92A3-4E283C47C99C}"/>
     <cellStyle name="표준 3" xfId="5" xr:uid="{689C8B9C-73C0-4396-9006-DA740E2D734E}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -7214,6 +7747,40 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -7735,19 +8302,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{010B9D6D-3BF0-4A1F-948A-39325BDC1977}" name="표1" displayName="표1" ref="B4:I12" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{010B9D6D-3BF0-4A1F-948A-39325BDC1977}" name="표1" displayName="표1" ref="B4:I12" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="B4:I12" xr:uid="{010B9D6D-3BF0-4A1F-948A-39325BDC1977}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{73A9C77A-38F9-4126-9979-F3A06D0761F2}" name="번호" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{73A9C77A-38F9-4126-9979-F3A06D0761F2}" name="번호" dataDxfId="13">
       <calculatedColumnFormula>ROW()-4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9F3D241B-48A5-410B-9627-A1213BE8410F}" name="화면명" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{EB2648B7-1BAF-4B1F-AE5F-9CC68BD0658D}" name="화면 번호" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{25F673B8-4BB4-47A0-A8E5-4996AA4AC523}" name="파일명" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{095981F3-ACC1-418D-B72F-1F005A770DC8}" name="관련 위젯" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{4B0DBBA2-075E-49A3-AC49-EB2D74A165E7}" name="해야 되는 거" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{8BC8F455-6EF6-496F-974F-6F6CDAD0DC6C}" name="완성여부" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{8D716F0D-1F2E-48C8-93C6-0AF7F04B72EB}" name="실제소요시간" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9F3D241B-48A5-410B-9627-A1213BE8410F}" name="화면명" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{EB2648B7-1BAF-4B1F-AE5F-9CC68BD0658D}" name="화면 번호" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{25F673B8-4BB4-47A0-A8E5-4996AA4AC523}" name="파일명" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{095981F3-ACC1-418D-B72F-1F005A770DC8}" name="관련 위젯" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{4B0DBBA2-075E-49A3-AC49-EB2D74A165E7}" name="해야 되는 거" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{8BC8F455-6EF6-496F-974F-6F6CDAD0DC6C}" name="완성여부" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8D716F0D-1F2E-48C8-93C6-0AF7F04B72EB}" name="실제소요시간" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8036,11 +8603,11 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="2:29" ht="22.5" x14ac:dyDescent="0.75">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="10"/>
       <c r="F3" s="16"/>
       <c r="G3"/>
@@ -8071,10 +8638,10 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="111"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="10"/>
       <c r="F4" s="65" t="s">
         <v>5</v>
@@ -8107,10 +8674,10 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112">
+      <c r="C5" s="115">
         <v>45789</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="10"/>
       <c r="F5" s="52" t="s">
         <v>77</v>
@@ -8143,10 +8710,10 @@
       <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="10"/>
       <c r="F6" s="53" t="s">
         <v>78</v>
@@ -8242,482 +8809,482 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="101" t="s">
-        <v>88</v>
+      <c r="C9" s="104" t="s">
+        <v>86</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="H9" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="I9" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="J9" s="56" t="s">
         <v>92</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>94</v>
       </c>
       <c r="K9" s="56"/>
       <c r="L9" s="57"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="56" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="H10" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="56" t="s">
         <v>96</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" s="56" t="s">
-        <v>98</v>
       </c>
       <c r="K10" s="56"/>
       <c r="L10" s="57"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E11" s="94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F11" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="92" t="s">
+      <c r="I11" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="93" t="s">
+      <c r="J11" s="91" t="s">
         <v>176</v>
-      </c>
-      <c r="I11" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="J11" s="91" t="s">
-        <v>178</v>
       </c>
       <c r="K11" s="91"/>
       <c r="L11" s="92"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:29" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="59" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>104</v>
-      </c>
       <c r="H12" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="59" t="s">
         <v>92</v>
-      </c>
-      <c r="I12" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="59" t="s">
-        <v>94</v>
       </c>
       <c r="K12" s="59"/>
       <c r="L12" s="60"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="95" t="s">
-        <v>105</v>
+      <c r="C13" s="98" t="s">
+        <v>103</v>
       </c>
       <c r="D13" s="62" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="H13" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="62" t="s">
         <v>107</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="62" t="s">
-        <v>109</v>
       </c>
       <c r="K13" s="62"/>
       <c r="L13" s="63"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="56" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>112</v>
-      </c>
       <c r="H14" s="58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I14" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J14" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K14" s="56"/>
       <c r="L14" s="57"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:29" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="59" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>115</v>
-      </c>
       <c r="H15" s="61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I15" s="59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J15" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="60"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="95" t="s">
-        <v>116</v>
+      <c r="C16" s="98" t="s">
+        <v>114</v>
       </c>
       <c r="D16" s="62" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>119</v>
-      </c>
       <c r="H16" s="64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I16" s="62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J16" s="62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K16" s="62"/>
       <c r="L16" s="63"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="56" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>122</v>
-      </c>
       <c r="H17" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="56" t="s">
         <v>92</v>
-      </c>
-      <c r="I17" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="56" t="s">
-        <v>94</v>
       </c>
       <c r="K17" s="56"/>
       <c r="L17" s="57"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="59" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>125</v>
-      </c>
       <c r="H18" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="59" t="s">
         <v>99</v>
-      </c>
-      <c r="I18" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="59" t="s">
-        <v>101</v>
       </c>
       <c r="K18" s="59"/>
       <c r="L18" s="60"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="95" t="s">
-        <v>126</v>
+      <c r="C19" s="98" t="s">
+        <v>124</v>
       </c>
       <c r="D19" s="62" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F19" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G19" s="63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H19" s="64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I19" s="62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J19" s="62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K19" s="62"/>
       <c r="L19" s="63"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="59" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>131</v>
-      </c>
       <c r="H20" s="61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I20" s="59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J20" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K20" s="59"/>
       <c r="L20" s="60"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="95" t="s">
-        <v>132</v>
+      <c r="C21" s="98" t="s">
+        <v>130</v>
       </c>
       <c r="D21" s="62" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="H21" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="62" t="s">
         <v>134</v>
-      </c>
-      <c r="G21" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="62" t="s">
-        <v>136</v>
       </c>
       <c r="K21" s="62"/>
       <c r="L21" s="63"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>139</v>
-      </c>
       <c r="H22" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="59" t="s">
         <v>92</v>
-      </c>
-      <c r="I22" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="59" t="s">
-        <v>94</v>
       </c>
       <c r="K22" s="59"/>
       <c r="L22" s="60"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="95" t="s">
-        <v>140</v>
+      <c r="C23" s="98" t="s">
+        <v>138</v>
       </c>
       <c r="D23" s="62" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>143</v>
-      </c>
       <c r="H23" s="64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I23" s="62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J23" s="62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="63"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="H24" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="I24" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="51" t="s">
+      <c r="J24" s="48" t="s">
         <v>147</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="J24" s="48" t="s">
-        <v>149</v>
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="49"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="106" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="47" t="s">
@@ -8746,8 +9313,8 @@
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="98"/>
-      <c r="C26" s="104"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="42" t="s">
         <v>50</v>
       </c>
@@ -8774,10 +9341,10 @@
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="106" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="47" t="s">
@@ -8806,8 +9373,8 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="98"/>
-      <c r="C28" s="104"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="42" t="s">
         <v>60</v>
       </c>
@@ -8834,10 +9401,10 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="108" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="39" t="s">
@@ -8866,8 +9433,8 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="100"/>
-      <c r="C30" s="106"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="11" t="s">
         <v>70</v>
       </c>
@@ -9155,10 +9722,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H30">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="중">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="중">
       <formula>NOT(ISERROR(SEARCH("중",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="상">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="상">
       <formula>NOT(ISERROR(SEARCH("상",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9174,8 +9741,8 @@
   </sheetPr>
   <dimension ref="B1:AC60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9257,11 +9824,11 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="2:29" ht="22.5" x14ac:dyDescent="0.75">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
       <c r="E3" s="10"/>
       <c r="F3" s="16"/>
       <c r="G3"/>
@@ -9292,10 +9859,10 @@
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="111"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="10"/>
       <c r="F4" s="65" t="s">
         <v>5</v>
@@ -9328,10 +9895,10 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="112">
+      <c r="C5" s="115">
         <v>45789</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="116"/>
       <c r="E5" s="10"/>
       <c r="F5" s="52" t="s">
         <v>77</v>
@@ -9364,10 +9931,10 @@
       <c r="B6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="10"/>
       <c r="F6" s="53" t="s">
         <v>78</v>
@@ -9453,454 +10020,454 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="101" t="s">
-        <v>88</v>
+      <c r="C9" s="104" t="s">
+        <v>86</v>
       </c>
       <c r="D9" s="56" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="H9" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="I9" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="J9" s="56" t="s">
         <v>92</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>94</v>
       </c>
       <c r="K9" s="56"/>
       <c r="L9" s="57"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="56" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>168</v>
-      </c>
       <c r="H10" s="58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K10" s="56"/>
       <c r="L10" s="57"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="2:29" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
+    <row r="11" spans="2:29" ht="39.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="59" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E11" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>104</v>
-      </c>
       <c r="H11" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="59" t="s">
         <v>92</v>
-      </c>
-      <c r="I11" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="59" t="s">
-        <v>94</v>
       </c>
       <c r="K11" s="59"/>
       <c r="L11" s="60"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="95" t="s">
-        <v>105</v>
+      <c r="C12" s="98" t="s">
+        <v>103</v>
       </c>
       <c r="D12" s="62" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="H12" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="62" t="s">
         <v>107</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>109</v>
       </c>
       <c r="K12" s="62"/>
       <c r="L12" s="63"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="56" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="57" t="s">
-        <v>112</v>
-      </c>
       <c r="H13" s="58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K13" s="56"/>
       <c r="L13" s="57"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="2:29" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="59" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>115</v>
-      </c>
       <c r="H14" s="61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I14" s="59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J14" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K14" s="59"/>
       <c r="L14" s="60"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="95" t="s">
-        <v>116</v>
+      <c r="C15" s="98" t="s">
+        <v>114</v>
       </c>
       <c r="D15" s="62" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>119</v>
-      </c>
       <c r="H15" s="64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I15" s="62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J15" s="62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K15" s="62"/>
       <c r="L15" s="63"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="56" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>122</v>
-      </c>
       <c r="H16" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="56" t="s">
         <v>92</v>
-      </c>
-      <c r="I16" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="56" t="s">
-        <v>94</v>
       </c>
       <c r="K16" s="56"/>
       <c r="L16" s="57"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="59" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>125</v>
-      </c>
       <c r="H17" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="59" t="s">
         <v>99</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="59" t="s">
-        <v>101</v>
       </c>
       <c r="K17" s="59"/>
       <c r="L17" s="60"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="95" t="s">
-        <v>126</v>
+      <c r="C18" s="98" t="s">
+        <v>124</v>
       </c>
       <c r="D18" s="62" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F18" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G18" s="63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H18" s="64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I18" s="62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J18" s="62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K18" s="62"/>
       <c r="L18" s="63"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
       <c r="D19" s="59" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="F19" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>131</v>
-      </c>
       <c r="H19" s="61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J19" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K19" s="59"/>
       <c r="L19" s="60"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="95" t="s">
-        <v>132</v>
+      <c r="C20" s="98" t="s">
+        <v>130</v>
       </c>
       <c r="D20" s="62" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="H20" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="62" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="62" t="s">
-        <v>136</v>
       </c>
       <c r="K20" s="62"/>
       <c r="L20" s="63"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>139</v>
-      </c>
       <c r="H21" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="59" t="s">
         <v>92</v>
-      </c>
-      <c r="I21" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="59" t="s">
-        <v>94</v>
       </c>
       <c r="K21" s="59"/>
       <c r="L21" s="60"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="95" t="s">
-        <v>140</v>
+      <c r="C22" s="98" t="s">
+        <v>138</v>
       </c>
       <c r="D22" s="62" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="63" t="s">
-        <v>143</v>
-      </c>
       <c r="H22" s="64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I22" s="62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J22" s="62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K22" s="62"/>
       <c r="L22" s="63"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="47" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="H23" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="I23" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="51" t="s">
+      <c r="J23" s="48" t="s">
         <v>147</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23" s="48" t="s">
-        <v>149</v>
       </c>
       <c r="K23" s="48"/>
       <c r="L23" s="49"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="106" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="47" t="s">
@@ -9929,8 +10496,8 @@
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="98"/>
-      <c r="C25" s="104"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="107"/>
       <c r="D25" s="42" t="s">
         <v>50</v>
       </c>
@@ -9957,10 +10524,10 @@
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="106" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="47" t="s">
@@ -9989,8 +10556,8 @@
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="98"/>
-      <c r="C27" s="104"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="42" t="s">
         <v>60</v>
       </c>
@@ -10017,10 +10584,10 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="106" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="47" t="s">
@@ -10049,8 +10616,8 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="98"/>
-      <c r="C29" s="104"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="42" t="s">
         <v>70</v>
       </c>
@@ -10077,29 +10644,29 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:13" ht="39" x14ac:dyDescent="0.35">
-      <c r="B30" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="119" t="s">
-        <v>158</v>
+      <c r="B30" s="122" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="122" t="s">
+        <v>156</v>
       </c>
       <c r="D30" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="67" t="s">
-        <v>154</v>
-      </c>
       <c r="F30" s="68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G30" s="70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H30" s="71" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I30" s="69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J30" s="69" t="s">
         <v>75</v>
@@ -10109,25 +10676,25 @@
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="2:13" ht="39.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
       <c r="D31" s="69" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E31" s="69" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F31" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="H31" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="70" t="s">
+      <c r="I31" s="69" t="s">
         <v>160</v>
-      </c>
-      <c r="H31" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="I31" s="69" t="s">
-        <v>162</v>
       </c>
       <c r="J31" s="69" t="s">
         <v>74</v>
@@ -10137,20 +10704,20 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="100" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="119" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="C32" s="116" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="47" t="s">
+      <c r="E32" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="48" t="s">
-        <v>191</v>
-      </c>
       <c r="F32" s="49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G32" s="50"/>
       <c r="H32" s="51" t="s">
@@ -10167,19 +10734,19 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:29" ht="39" x14ac:dyDescent="0.35">
-      <c r="B33" s="99"/>
-      <c r="C33" s="117"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="120"/>
       <c r="D33" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>192</v>
-      </c>
       <c r="F33" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>43</v>
@@ -10188,26 +10755,26 @@
         <v>24</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="8"/>
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:29" ht="39" x14ac:dyDescent="0.35">
-      <c r="B34" s="100"/>
-      <c r="C34" s="118"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="121"/>
       <c r="D34" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="H34" s="38" t="s">
         <v>43</v>
@@ -10216,7 +10783,7 @@
         <v>24</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="8"/>
@@ -10594,10 +11161,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H34">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="중">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="중">
       <formula>NOT(ISERROR(SEARCH("중",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="상">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="상">
       <formula>NOT(ISERROR(SEARCH("상",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10607,11 +11174,1482 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC2AFB5-2EB2-49D0-AB76-DAE5068F964A}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B1:AC60"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="56" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" customWidth="1"/>
+    <col min="10" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.53125" customWidth="1"/>
+    <col min="14" max="14" width="15.796875" customWidth="1"/>
+    <col min="16" max="16" width="34.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="16"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="2:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="16"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+    </row>
+    <row r="3" spans="2:29" ht="22.5" x14ac:dyDescent="0.75">
+      <c r="B3" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="16"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+    </row>
+    <row r="4" spans="2:29" ht="22.5" x14ac:dyDescent="0.75">
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="114"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+    </row>
+    <row r="5" spans="2:29" ht="22.5" x14ac:dyDescent="0.75">
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="115">
+        <v>45789</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+    </row>
+    <row r="6" spans="2:29" ht="22.9" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="B6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="118"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+    </row>
+    <row r="7" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="16"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+    </row>
+    <row r="8" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="56">
+        <v>2</v>
+      </c>
+      <c r="L9" s="57"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="56">
+        <v>1</v>
+      </c>
+      <c r="L10" s="57"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:29" ht="39.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="59">
+        <v>2</v>
+      </c>
+      <c r="L11" s="60"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="62">
+        <v>1</v>
+      </c>
+      <c r="L12" s="63"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="56">
+        <v>2</v>
+      </c>
+      <c r="L13" s="57"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="2:29" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="59">
+        <v>1</v>
+      </c>
+      <c r="L14" s="60"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="62">
+        <v>1</v>
+      </c>
+      <c r="L15" s="63"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="2:29" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="56">
+        <v>2</v>
+      </c>
+      <c r="L16" s="57"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="59">
+        <v>1</v>
+      </c>
+      <c r="L17" s="60"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="62">
+        <v>1</v>
+      </c>
+      <c r="L18" s="63"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="60"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="63"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="62">
+        <v>2</v>
+      </c>
+      <c r="L22" s="63"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="48"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="48"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="101"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="43"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="48"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="101"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="43"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="48"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="2:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="101"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="43"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="2:13" ht="39.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="122" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="J30" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="67">
+        <v>2</v>
+      </c>
+      <c r="L30" s="68"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="2:13" ht="33.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" s="43"/>
+      <c r="L31" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="100" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="119" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" s="48"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:29" ht="39" x14ac:dyDescent="0.35">
+      <c r="B33" s="102"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:29" ht="39" x14ac:dyDescent="0.35">
+      <c r="B34" s="103"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:29" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="2:29" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="2:29" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="2:29" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="2:29" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="2:29" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="2:29" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="2:29" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="2:29" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="2:29" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="2:29" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="2:29" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="2:29" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="2:29" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+    </row>
+    <row r="49" spans="2:29" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+    </row>
+    <row r="50" spans="2:29" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+    </row>
+    <row r="51" spans="2:29" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+    </row>
+    <row r="52" spans="2:29" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+    </row>
+    <row r="53" spans="2:29" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+    </row>
+    <row r="54" spans="2:29" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+    </row>
+    <row r="60" spans="2:29" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F60"/>
+      <c r="G60" s="6"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="B4:B6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H34">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="중">
+      <formula>NOT(ISERROR(SEARCH("중",H9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="상">
+      <formula>NOT(ISERROR(SEARCH("상",H9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA85327B-553E-42A5-8E20-7CCAD0C92D98}">
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -10630,15 +12668,15 @@
       <c r="B2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="121" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
+      <c r="C2" s="124" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10646,16 +12684,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>3</v>
@@ -10664,7 +12702,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="31" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
@@ -10673,21 +12711,21 @@
         <v>1</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>203</v>
-      </c>
       <c r="E5" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:9" s="31" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
@@ -10696,21 +12734,21 @@
         <v>2</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="66" t="s">
-        <v>204</v>
-      </c>
       <c r="E6" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="24"/>
       <c r="H6" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="2:9" s="31" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
@@ -10719,20 +12757,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="33"/>
       <c r="H7" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="23">
@@ -10740,21 +12780,21 @@
         <v>4</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="35"/>
       <c r="H8" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10763,21 +12803,21 @@
         <v>5</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="27"/>
       <c r="H9" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10786,23 +12826,23 @@
         <v>6</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="G10" s="122" t="s">
-        <v>225</v>
+      <c r="G10" s="95" t="s">
+        <v>223</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10811,21 +12851,21 @@
         <v>7</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="24"/>
       <c r="H11" s="30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="16.899999999999999" x14ac:dyDescent="0.35">
@@ -10833,14 +12873,14 @@
         <f>ROW()-4</f>
         <v>8</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>165</v>
+      <c r="C12" s="96" t="s">
+        <v>163</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="22"/>
@@ -10849,7 +12889,7 @@
     </row>
     <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -10864,12 +12904,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF739AA-6759-488A-9184-2089BEEE3362}">
   <dimension ref="B4:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10884,16 +12924,16 @@
   <sheetData>
     <row r="4" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>171</v>
-      </c>
       <c r="E4" s="77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -10901,10 +12941,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E5" s="82"/>
     </row>
@@ -10913,40 +12953,48 @@
         <v>2</v>
       </c>
       <c r="C6" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="85" t="s">
         <v>182</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" s="85" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86"/>
       <c r="C7" s="85"/>
       <c r="D7" s="87" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E7" s="85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="26.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="86"/>
       <c r="C8" s="85"/>
       <c r="D8" s="87" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E8" s="85" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="86"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="85"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="131.65" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="89">
+        <v>3</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="86"/>
